--- a/database/industries/folad/hormoz/product/yearly_seprated.xlsx
+++ b/database/industries/folad/hormoz/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\hormoz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\hormoz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AF2130-C0F1-4AFD-B27A-9AC5830039F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +368,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -379,7 +380,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -426,6 +427,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -461,6 +479,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,17 +647,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -632,7 +667,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -644,7 +679,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,7 +691,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -666,7 +701,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -678,7 +713,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -690,7 +725,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -700,7 +735,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -722,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -732,7 +767,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -744,7 +779,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -768,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -792,7 +827,7 @@
         <v>822182</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -816,7 +851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -840,7 +875,7 @@
         <v>14621</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -864,7 +899,7 @@
         <v>61267</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>18</v>
       </c>
@@ -886,7 +921,7 @@
         <v>898070</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
@@ -898,7 +933,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
@@ -922,7 +957,7 @@
         <v>600908</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
@@ -944,7 +979,7 @@
         <v>600908</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
@@ -956,7 +991,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>22</v>
       </c>
@@ -978,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
@@ -1002,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
@@ -1026,7 +1061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
@@ -1048,7 +1083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>26</v>
       </c>
@@ -1070,7 +1105,7 @@
         <v>1498978</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1080,7 +1115,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1090,7 +1125,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1100,7 +1135,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
@@ -1122,7 +1157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1132,7 +1167,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1144,7 +1179,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1168,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1227,7 @@
         <v>128757557</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>15</v>
       </c>
@@ -1216,7 +1251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>16</v>
       </c>
@@ -1240,7 +1275,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>17</v>
       </c>
@@ -1264,7 +1299,7 @@
         <v>4974604</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>18</v>
       </c>
@@ -1286,7 +1321,7 @@
         <v>133752691</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>30</v>
       </c>
@@ -1298,7 +1333,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>14</v>
       </c>
@@ -1322,7 +1357,7 @@
         <v>87652029</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>20</v>
       </c>
@@ -1344,7 +1379,7 @@
         <v>87652029</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>31</v>
       </c>
@@ -1356,7 +1391,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>22</v>
       </c>
@@ -1378,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +1461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>25</v>
       </c>
@@ -1450,7 +1485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>26</v>
       </c>
@@ -1472,7 +1507,7 @@
         <v>221404720</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1482,7 +1517,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1492,7 +1527,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1502,7 +1537,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>32</v>
       </c>
@@ -1524,7 +1559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1534,7 +1569,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>33</v>
       </c>
@@ -1546,7 +1581,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>11</v>
       </c>
@@ -1570,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>14</v>
       </c>
@@ -1594,7 +1629,7 @@
         <v>156604690</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>15</v>
       </c>
@@ -1618,7 +1653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>16</v>
       </c>
@@ -1642,7 +1677,7 @@
         <v>1404145</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>17</v>
       </c>
@@ -1666,7 +1701,7 @@
         <v>81195489</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>35</v>
       </c>
@@ -1678,7 +1713,7 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +1737,7 @@
         <v>145865971</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1712,7 +1747,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1722,7 +1757,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1732,7 +1767,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>36</v>
       </c>
@@ -1754,7 +1789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1764,7 +1799,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>37</v>
       </c>
@@ -1776,7 +1811,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>11</v>
       </c>
@@ -1800,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>14</v>
       </c>
@@ -1824,7 +1859,7 @@
         <v>-71572289</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>15</v>
       </c>
@@ -1848,7 +1883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>16</v>
       </c>
@@ -1872,7 +1907,7 @@
         <v>-58402</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>17</v>
       </c>
@@ -1896,7 +1931,7 @@
         <v>-3324586</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>38</v>
       </c>
@@ -1918,7 +1953,7 @@
         <v>-74955277</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>39</v>
       </c>
@@ -1930,7 +1965,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>14</v>
       </c>
@@ -1954,7 +1989,7 @@
         <v>-52309997</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>40</v>
       </c>
@@ -1976,7 +2011,7 @@
         <v>-52309997</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="16" t="s">
         <v>41</v>
       </c>
@@ -1988,7 +2023,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>42</v>
       </c>
@@ -2010,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>11</v>
       </c>
@@ -2034,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
         <v>24</v>
       </c>
@@ -2058,7 +2093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>25</v>
       </c>
@@ -2082,7 +2117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="18" t="s">
         <v>26</v>
       </c>
@@ -2104,7 +2139,7 @@
         <v>-127265274</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2114,7 +2149,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2124,7 +2159,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2134,7 +2169,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
         <v>43</v>
       </c>
@@ -2156,7 +2191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2166,7 +2201,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>44</v>
       </c>
@@ -2178,7 +2213,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>11</v>
       </c>
@@ -2202,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>14</v>
       </c>
@@ -2226,7 +2261,7 @@
         <v>57185268</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>15</v>
       </c>
@@ -2250,7 +2285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>16</v>
       </c>
@@ -2274,7 +2309,7 @@
         <v>-37872</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>17</v>
       </c>
@@ -2298,7 +2333,7 @@
         <v>1650018</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>45</v>
       </c>
@@ -2320,7 +2355,7 @@
         <v>58797414</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>46</v>
       </c>
@@ -2332,7 +2367,7 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>14</v>
       </c>
@@ -2356,7 +2391,7 @@
         <v>35342032</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>47</v>
       </c>
@@ -2378,7 +2413,7 @@
         <v>35342032</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="16" t="s">
         <v>48</v>
       </c>
@@ -2390,7 +2425,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="18" t="s">
         <v>49</v>
       </c>
@@ -2412,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
         <v>26</v>
       </c>
